--- a/Task list.xlsx
+++ b/Task list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akshay Medge\Desktop\Github\NCSU Projects\HouseSellingPlatform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E8E9780-E351-4060-9457-231DEF1FBEE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F53E8A8-6892-4136-9A88-B98273846AAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" activeTab="1" xr2:uid="{63A9BD50-6E61-40C3-93B9-3DCA501BF626}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Features</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Login redirection to specific pages and prevent random accesses for everyone except admin: Access control</t>
+  </si>
+  <si>
+    <t>Find a way to incorporate button/link while deleting, currently the view is messed up to make the functionality work</t>
   </si>
 </sst>
 </file>
@@ -686,16 +689,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B07A0B6-A650-47EE-9F31-D7A205E58A3B}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="90.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -709,7 +715,13 @@
         <v>29</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>